--- a/Datos/Database by set/Set with text box/Xlsx sets/Magic 2013 Promos (PM13).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Magic 2013 Promos (PM13).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,175 +444,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Cathedral of War</t>
+          <t>('Cathedral of War', ['Land', 'Cathedral of War enters the battlefield tapped.', 'Exalted (Whenever a creature you control attacks alone, that creature gets +1/+1 until end of turn.)', '{T}: Add {C}.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Land</t>
+          <t>('Magmaquake', ['{X}{R}{R}', 'Instant', 'Magmaquake deals X damage to each creature without flying and each planeswalker.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cathedral of War enters the battlefield tapped.</t>
+          <t>('Mwonvuli Beast Tracker', ['{1}{G}{G}', 'Creature — Human Scout', 'When Mwonvuli Beast Tracker enters the battlefield, search your library for a creature card with deathtouch, hexproof, reach, or trample and reveal it. Shuffle your library and put that card on top of it.', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Exalted (Whenever a creature you control attacks alone, that creature gets +1/+1 until end of turn.)</t>
+          <t>('Staff of Nin', ['{6}', 'Artifact', 'At the beginning of your upkeep, draw a card.', '{T}: Staff of Nin deals 1 damage to any target.'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>{T}: Add {C}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Magmaquake</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>{X}{R}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Magmaquake deals X damage to each creature without flying and each planeswalker.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Mwonvuli Beast Tracker</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>{1}{G}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Creature — Human Scout</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>When Mwonvuli Beast Tracker enters the battlefield, search your library for a creature card with deathtouch, hexproof, reach, or trample and reveal it. Shuffle your library and put that card on top of it.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Staff of Nin</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>{6}</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Artifact</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>At the beginning of your upkeep, draw a card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>{T}: Staff of Nin deals 1 damage to any target.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Xathrid Gorgon</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>{5}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Creature — Gorgon</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Deathtouch (Any amount of damage this deals to a creature is enough to destroy it.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>{2}{B}, {T}: Put a petrification counter on target creature. It gains defender and becomes a colorless artifact in addition to its other types. Its activated abilities can’t be activated. (A creature with defender can’t attack.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>3/6</t>
+          <t>('Xathrid Gorgon', ['{5}{B}', 'Creature — Gorgon', 'Deathtouch (Any amount of damage this deals to a creature is enough to destroy it.)', '{2}{B}, {T}: Put a petrification counter on target creature. It gains defender and becomes a colorless artifact in addition to its other types. Its activated abilities can’t be activated. (A creature with defender can’t attack.)', '3/6'])</t>
         </is>
       </c>
     </row>
